--- a/results/few_shot.xlsx
+++ b/results/few_shot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddesblancs/Documents/SSLMB/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddesblancs/Documents/zeroNoteSamba/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C478B56-AF15-6248-9B53-382F51872123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95ACE68-74C6-2A45-8214-24773FDE789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6D97F020-2EF7-D34C-8569-EFB580207884}"/>
+    <workbookView xWindow="5740" yWindow="500" windowWidth="23060" windowHeight="16020" xr2:uid="{6D97F020-2EF7-D34C-8569-EFB580207884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="623">
   <si>
     <t>Dataset</t>
   </si>
@@ -142,9 +142,6 @@
     <t>0.119</t>
   </si>
   <si>
-    <t>Gtzan</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -1658,13 +1655,259 @@
   </si>
   <si>
     <t>ZeroNS</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.237</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.448</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.214</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>0.116</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.135</t>
+  </si>
+  <si>
+    <t>0.233</t>
+  </si>
+  <si>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>0.178</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>0.090</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.201</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>0.322</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.385</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.092</t>
+  </si>
+  <si>
+    <t>0.200</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.499</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.480</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>GTZAN</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.284</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.539</t>
+  </si>
+  <si>
+    <t>0.331</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.416</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1718,6 +1961,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1739,7 +1996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1764,6 +2021,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2082,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F388871D-55E8-4541-BACB-557B28719449}">
   <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="R129" sqref="R129"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2111,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2">
         <v>1</v>
@@ -2161,49 +2426,49 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -2214,10 +2479,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -2235,25 +2500,25 @@
         <v>10</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>19</v>
@@ -2267,10 +2532,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>14</v>
@@ -2288,28 +2553,28 @@
         <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -2320,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -2332,34 +2597,34 @@
         <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>9</v>
@@ -2373,10 +2638,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>31</v>
@@ -2394,28 +2659,28 @@
         <v>28</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -2426,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>28</v>
@@ -2447,25 +2712,25 @@
         <v>14</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2479,10 +2744,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -2500,28 +2765,28 @@
         <v>11</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -2532,10 +2797,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>11</v>
@@ -2550,31 +2815,31 @@
         <v>21</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -2585,13 +2850,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>32</v>
@@ -2600,34 +2865,34 @@
         <v>35</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -2638,10 +2903,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
@@ -2659,28 +2924,28 @@
         <v>21</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -2691,49 +2956,49 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -2744,10 +3009,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
@@ -2765,19 +3030,19 @@
         <v>27</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>26</v>
@@ -2794,376 +3059,688 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -3171,13 +3748,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>21</v>
@@ -3201,7 +3778,7 @@
         <v>20</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>24</v>
@@ -3227,52 +3804,52 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3283,22 +3860,22 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>16</v>
@@ -3319,10 +3896,10 @@
         <v>29</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P29" s="9" t="s">
         <v>31</v>
@@ -3336,52 +3913,52 @@
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="8" t="s">
+      <c r="K30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="N30" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -3389,25 +3966,25 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>33</v>
@@ -3422,13 +3999,13 @@
         <v>24</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P31" s="9" t="s">
         <v>19</v>
@@ -3442,52 +4019,52 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -3495,37 +4072,37 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>15</v>
@@ -3534,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P33" s="9" t="s">
         <v>17</v>
@@ -3548,52 +4125,52 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -3601,13 +4178,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>15</v>
@@ -3622,7 +4199,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>31</v>
@@ -3631,19 +4208,19 @@
         <v>24</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>33</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>19</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q35" s="9" t="s">
         <v>24</v>
@@ -3654,52 +4231,52 @@
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="N36" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -3707,16 +4284,16 @@
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>25</v>
@@ -3728,13 +4305,13 @@
         <v>20</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>21</v>
@@ -3743,7 +4320,7 @@
         <v>22</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O37" s="9" t="s">
         <v>18</v>
@@ -3752,7 +4329,7 @@
         <v>21</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -3763,49 +4340,49 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -3818,34 +4395,34 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>24</v>
@@ -3874,10 +4451,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>18</v>
@@ -3886,37 +4463,37 @@
         <v>8</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="9"/>
@@ -3930,10 +4507,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>10</v>
@@ -3942,37 +4519,37 @@
         <v>27</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K41" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
@@ -3985,49 +4562,49 @@
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
@@ -4040,10 +4617,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>15</v>
@@ -4052,31 +4629,31 @@
         <v>20</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>15</v>
@@ -4095,49 +4672,49 @@
         <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>32</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
@@ -4150,10 +4727,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>31</v>
@@ -4162,22 +4739,22 @@
         <v>28</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H45" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="L45" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>11</v>
@@ -4205,49 +4782,49 @@
         <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -4261,10 +4838,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>12</v>
@@ -4273,22 +4850,22 @@
         <v>21</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>8</v>
@@ -4317,49 +4894,49 @@
         <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
@@ -4372,10 +4949,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>31</v>
@@ -4384,7 +4961,7 @@
         <v>8</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>35</v>
@@ -4393,13 +4970,13 @@
         <v>32</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>21</v>
@@ -4408,13 +4985,13 @@
         <v>21</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -4424,27 +5001,45 @@
         <v>5</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="N50" s="15"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
       <c r="R50" s="9"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
@@ -4457,27 +5052,45 @@
         <v>5</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="N51" s="15"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
       <c r="R51" s="9"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -4490,27 +5103,45 @@
         <v>5</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="N52" s="15"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
       <c r="R52" s="9"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -4523,27 +5154,45 @@
         <v>5</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="N53" s="15"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
       <c r="R53" s="9"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
@@ -4556,27 +5205,45 @@
         <v>5</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N54" s="15"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
       <c r="R54" s="9"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
@@ -4589,27 +5256,45 @@
         <v>5</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="N55" s="15"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
       <c r="R55" s="9"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
@@ -4622,27 +5307,45 @@
         <v>5</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
       <c r="R56" s="9"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
@@ -4655,27 +5358,45 @@
         <v>5</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
       <c r="R57" s="9"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -4688,27 +5409,45 @@
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="N58" s="15"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
       <c r="R58" s="10"/>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
@@ -4721,27 +5460,45 @@
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N59" s="15"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
       <c r="R59" s="8"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -4754,27 +5511,45 @@
         <v>5</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="N60" s="15"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
       <c r="R60" s="9"/>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
@@ -4787,27 +5562,45 @@
         <v>5</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="15"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
       <c r="R61" s="9"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -4820,52 +5613,52 @@
         <v>5</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R62" s="7"/>
       <c r="S62" s="9"/>
@@ -4879,13 +5672,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>14</v>
@@ -4921,7 +5714,7 @@
         <v>14</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q63" s="9" t="s">
         <v>21</v>
@@ -4938,52 +5731,52 @@
         <v>5</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J64" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K64" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K64" s="9" t="s">
-        <v>253</v>
-      </c>
       <c r="L64" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R64" s="6"/>
       <c r="S64" s="9"/>
@@ -4997,13 +5790,13 @@
         <v>5</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>18</v>
@@ -5018,19 +5811,19 @@
         <v>16</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N65" s="8" t="s">
         <v>20</v>
@@ -5056,52 +5849,52 @@
         <v>5</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R66" s="7"/>
       <c r="S66" s="9"/>
@@ -5115,13 +5908,13 @@
         <v>5</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>18</v>
@@ -5133,22 +5926,22 @@
         <v>31</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N67" s="8" t="s">
         <v>11</v>
@@ -5174,52 +5967,52 @@
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R68" s="7"/>
       <c r="S68" s="9"/>
@@ -5233,13 +6026,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>8</v>
@@ -5248,13 +6041,13 @@
         <v>24</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>9</v>
@@ -5266,7 +6059,7 @@
         <v>19</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N69" s="8" t="s">
         <v>7</v>
@@ -5278,7 +6071,7 @@
         <v>26</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R69" s="7"/>
       <c r="S69" s="9"/>
@@ -5292,52 +6085,52 @@
         <v>5</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R70" s="7"/>
       <c r="S70" s="9"/>
@@ -5351,13 +6144,13 @@
         <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>26</v>
@@ -5384,13 +6177,13 @@
         <v>16</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N71" s="8" t="s">
         <v>7</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P71" s="9" t="s">
         <v>18</v>
@@ -5410,52 +6203,52 @@
         <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R72" s="7"/>
       <c r="S72" s="10"/>
@@ -5469,16 +6262,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>13</v>
@@ -5505,16 +6298,16 @@
         <v>13</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O73" s="9" t="s">
         <v>10</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R73" s="7"/>
       <c r="S73" s="8"/>
@@ -5531,49 +6324,49 @@
         <v>4</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R74" s="9"/>
       <c r="S74" s="7"/>
@@ -5589,13 +6382,13 @@
         <v>4</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>9</v>
@@ -5604,25 +6397,25 @@
         <v>8</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M75" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>29</v>
@@ -5631,7 +6424,7 @@
         <v>30</v>
       </c>
       <c r="Q75" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R75" s="9"/>
       <c r="S75" s="7"/>
@@ -5647,10 +6440,10 @@
         <v>4</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>21</v>
@@ -5659,7 +6452,7 @@
         <v>21</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>10</v>
@@ -5668,28 +6461,28 @@
         <v>10</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R76" s="9"/>
       <c r="S76" s="7"/>
@@ -5705,10 +6498,10 @@
         <v>4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>21</v>
@@ -5720,34 +6513,34 @@
         <v>27</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R77" s="9"/>
       <c r="S77" s="11"/>
@@ -5763,16 +6556,16 @@
         <v>4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>23</v>
@@ -5787,25 +6580,25 @@
         <v>22</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R78" s="9"/>
       <c r="S78" s="6"/>
@@ -5821,16 +6614,16 @@
         <v>4</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>13</v>
@@ -5839,31 +6632,31 @@
         <v>18</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N79" s="6" t="s">
         <v>35</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R79" s="9"/>
       <c r="S79" s="7"/>
@@ -5879,49 +6672,49 @@
         <v>4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R80" s="9"/>
       <c r="S80" s="7"/>
@@ -5937,37 +6730,37 @@
         <v>4</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N81" s="6" t="s">
         <v>16</v>
@@ -5976,10 +6769,10 @@
         <v>33</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R81" s="9"/>
       <c r="S81" s="7"/>
@@ -5995,49 +6788,49 @@
         <v>4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R82" s="9"/>
       <c r="S82" s="7"/>
@@ -6053,10 +6846,10 @@
         <v>4</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>28</v>
@@ -6068,7 +6861,7 @@
         <v>10</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>14</v>
@@ -6077,25 +6870,25 @@
         <v>10</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R83" s="9"/>
       <c r="S83" s="7"/>
@@ -6111,49 +6904,49 @@
         <v>4</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R84" s="10"/>
       <c r="S84" s="7"/>
@@ -6169,34 +6962,34 @@
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M85" s="7" t="s">
         <v>24</v>
@@ -6224,27 +7017,51 @@
         <v>6</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="L86" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M86" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="O86" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="P86" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q86" s="14"/>
       <c r="R86" s="7"/>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
@@ -6255,27 +7072,51 @@
         <v>6</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="L87" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M87" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O87" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P87" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q87" s="14"/>
       <c r="R87" s="7"/>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
@@ -6286,27 +7127,51 @@
         <v>6</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="L88" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="M88" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N88" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O88" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="P88" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q88" s="14"/>
       <c r="R88" s="7"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
@@ -6317,27 +7182,51 @@
         <v>6</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="O89" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P89" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q89" s="14"/>
       <c r="R89" s="11"/>
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
@@ -6348,27 +7237,51 @@
         <v>6</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L90" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M90" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N90" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="O90" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P90" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q90" s="14"/>
       <c r="R90" s="6"/>
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
@@ -6379,27 +7292,51 @@
         <v>6</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L91" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="M91" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="O91" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P91" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q91" s="14"/>
       <c r="R91" s="7"/>
       <c r="S91" s="9"/>
       <c r="T91" s="9"/>
@@ -6410,27 +7347,51 @@
         <v>6</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L92" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M92" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="N92" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O92" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="P92" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q92" s="14"/>
       <c r="R92" s="7"/>
       <c r="S92" s="9"/>
       <c r="T92" s="9"/>
@@ -6441,27 +7402,51 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L93" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="N93" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O93" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P93" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q93" s="14"/>
       <c r="R93" s="7"/>
       <c r="S93" s="9"/>
       <c r="T93" s="9"/>
@@ -6472,27 +7457,51 @@
         <v>6</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="L94" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="M94" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="N94" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="O94" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="P94" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q94" s="15"/>
       <c r="R94" s="7"/>
       <c r="S94" s="9"/>
       <c r="T94" s="9"/>
@@ -6503,27 +7512,51 @@
         <v>6</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="L95" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N95" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="O95" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="P95" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q95" s="15"/>
       <c r="R95" s="7"/>
       <c r="S95" s="9"/>
       <c r="T95" s="9"/>
@@ -6534,27 +7567,51 @@
         <v>6</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="J96" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="L96" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O96" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="P96" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q96" s="14"/>
       <c r="R96" s="7"/>
       <c r="S96" s="9"/>
       <c r="T96" s="9"/>
@@ -6565,27 +7622,51 @@
         <v>6</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L97" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N97" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O97" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P97" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q97" s="14"/>
       <c r="R97" s="7"/>
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
@@ -6596,52 +7677,52 @@
         <v>6</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R98" s="9"/>
     </row>
@@ -6650,13 +7731,13 @@
         <v>6</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>29</v>
@@ -6668,7 +7749,7 @@
         <v>19</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>16</v>
@@ -6677,7 +7758,7 @@
         <v>11</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L99" s="9" t="s">
         <v>8</v>
@@ -6704,52 +7785,52 @@
         <v>6</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O100" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P100" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R100" s="9"/>
     </row>
@@ -6758,52 +7839,52 @@
         <v>6</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L101" s="9" t="s">
         <v>25</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N101" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R101" s="9"/>
     </row>
@@ -6812,52 +7893,52 @@
         <v>6</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R102" s="9"/>
     </row>
@@ -6866,52 +7947,52 @@
         <v>6</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L103" s="9" t="s">
         <v>23</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R103" s="9"/>
     </row>
@@ -6920,52 +8001,52 @@
         <v>6</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H104" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="N104" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="P104" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="I104" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="J104" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="K104" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="L104" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="M104" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="N104" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="O104" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="P104" s="9" t="s">
-        <v>290</v>
-      </c>
       <c r="Q104" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R104" s="9"/>
     </row>
@@ -6974,37 +8055,37 @@
         <v>6</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>7</v>
@@ -7028,52 +8109,52 @@
         <v>6</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N106" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R106" s="9"/>
     </row>
@@ -7082,13 +8163,13 @@
         <v>6</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>7</v>
@@ -7097,19 +8178,19 @@
         <v>7</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L107" s="8" t="s">
         <v>24</v>
@@ -7118,7 +8199,7 @@
         <v>14</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O107" s="9" t="s">
         <v>7</v>
@@ -7136,52 +8217,52 @@
         <v>6</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R108" s="9"/>
     </row>
@@ -7190,19 +8271,19 @@
         <v>6</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>17</v>
@@ -7223,93 +8304,93 @@
         <v>18</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P109" s="9" t="s">
         <v>10</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R109" s="9"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O110" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P110" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>17</v>
@@ -7318,19 +8399,19 @@
         <v>7</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N111" s="6" t="s">
         <v>28</v>
@@ -7342,21 +8423,21 @@
         <v>14</v>
       </c>
       <c r="Q111" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>25</v>
@@ -7371,78 +8452,78 @@
         <v>22</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q112" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K113" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P113" s="7" t="s">
         <v>24</v>
@@ -7453,69 +8534,69 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q114" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>14</v>
@@ -7527,28 +8608,28 @@
         <v>14</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P115" s="7" t="s">
         <v>15</v>
@@ -7559,69 +8640,69 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P116" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q116" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>13</v>
@@ -7630,25 +8711,25 @@
         <v>9</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N117" s="6" t="s">
         <v>15</v>
@@ -7665,69 +8746,69 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K118" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L118" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="L118" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="M118" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P118" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q118" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>21</v>
@@ -7742,19 +8823,19 @@
         <v>21</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N119" s="6" t="s">
         <v>31</v>
@@ -7771,69 +8852,69 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F120" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G120" s="7" t="s">
-        <v>381</v>
-      </c>
       <c r="H120" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O120" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P120" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q120" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>25</v>
@@ -7848,16 +8929,16 @@
         <v>21</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M121" s="7" t="s">
         <v>32</v>
@@ -7866,10 +8947,10 @@
         <v>22</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P121" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q121" s="7" t="s">
         <v>10</v>
@@ -7877,399 +8958,615 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
+      <c r="E122" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="J122" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="K122" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="M122" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="N122" s="14"/>
+      <c r="O122" s="14"/>
+      <c r="P122" s="14"/>
+      <c r="Q122" s="14"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J123" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K123" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L123" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M123" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="N123" s="14"/>
+      <c r="O123" s="14"/>
+      <c r="P123" s="14"/>
+      <c r="Q123" s="14"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9"/>
+      <c r="E124" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="J124" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="K124" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="L124" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="M124" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N124" s="14"/>
+      <c r="O124" s="14"/>
+      <c r="P124" s="14"/>
+      <c r="Q124" s="14"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K125" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="L125" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M125" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="N125" s="14"/>
+      <c r="O125" s="14"/>
+      <c r="P125" s="14"/>
+      <c r="Q125" s="14"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="9"/>
+      <c r="E126" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="J126" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="K126" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="L126" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="M126" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="N126" s="14"/>
+      <c r="O126" s="14"/>
+      <c r="P126" s="14"/>
+      <c r="Q126" s="14"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="9"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J127" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="K127" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L127" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M127" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N127" s="14"/>
+      <c r="O127" s="14"/>
+      <c r="P127" s="14"/>
+      <c r="Q127" s="14"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="9"/>
-      <c r="O128" s="9"/>
-      <c r="P128" s="9"/>
-      <c r="Q128" s="9"/>
+      <c r="E128" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="J128" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K128" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="L128" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="M128" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="N128" s="14"/>
+      <c r="O128" s="14"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="14"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="9"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J129" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L129" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="M129" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
+      <c r="E130" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="J130" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="K130" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="L130" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="M130" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="L131" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="M131" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
+      <c r="E132" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K132" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="L132" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="M132" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J133" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K133" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M133" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E134" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L134" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M134" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N134" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O134" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P134" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q134" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G135" s="9" t="s">
         <v>15</v>
@@ -8287,7 +9584,7 @@
         <v>28</v>
       </c>
       <c r="L135" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M135" s="8" t="s">
         <v>14</v>
@@ -8299,98 +9596,98 @@
         <v>14</v>
       </c>
       <c r="P135" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q135" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E136" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L136" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M136" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O136" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P136" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q136" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L137" s="9" t="s">
         <v>12</v>
@@ -8413,90 +9710,90 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E138" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M138" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O138" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P138" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q138" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L139" s="9" t="s">
         <v>28</v>
@@ -8519,78 +9816,78 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E140" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L140" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M140" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O140" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P140" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q140" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>9</v>
@@ -8614,89 +9911,89 @@
         <v>21</v>
       </c>
       <c r="O141" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P141" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Q141" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E142" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L142" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N142" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O142" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P142" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q142" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>9</v>
@@ -8714,92 +10011,92 @@
         <v>18</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N143" s="9" t="s">
         <v>18</v>
       </c>
       <c r="O143" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P143" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q143" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E144" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L144" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N144" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O144" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P144" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q144" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G145" s="9" t="s">
         <v>31</v>
@@ -8820,7 +10117,7 @@
         <v>22</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N145" s="9" t="s">
         <v>10</v>

--- a/results/few_shot.xlsx
+++ b/results/few_shot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddesblancs/Documents/zeroNoteSamba/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95ACE68-74C6-2A45-8214-24773FDE789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B84C867-AE96-1141-B745-C4DC50DADDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="500" windowWidth="23060" windowHeight="16020" xr2:uid="{6D97F020-2EF7-D34C-8569-EFB580207884}"/>
+    <workbookView xWindow="14100" yWindow="500" windowWidth="14700" windowHeight="16020" xr2:uid="{6D97F020-2EF7-D34C-8569-EFB580207884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="643">
   <si>
     <t>Dataset</t>
   </si>
@@ -1901,6 +1901,66 @@
   </si>
   <si>
     <t>0.416</t>
+  </si>
+  <si>
+    <t>0.670</t>
+  </si>
+  <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>0.630</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.580</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.548</t>
   </si>
 </sst>
 </file>
@@ -2347,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F388871D-55E8-4541-BACB-557B28719449}">
   <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="J110" workbookViewId="0">
+      <selection activeCell="R133" sqref="R133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5036,10 +5096,18 @@
       <c r="M50" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="N50" s="15"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
+      <c r="N50" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="P50" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q50" s="14" t="s">
+        <v>366</v>
+      </c>
       <c r="R50" s="9"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
@@ -5087,10 +5155,18 @@
       <c r="M51" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="N51" s="15"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
+      <c r="N51" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="R51" s="9"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -5138,10 +5214,18 @@
       <c r="M52" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="N52" s="15"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
+      <c r="N52" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q52" s="14" t="s">
+        <v>514</v>
+      </c>
       <c r="R52" s="9"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -5189,10 +5273,18 @@
       <c r="M53" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="N53" s="15"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
+      <c r="N53" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="P53" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q53" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="R53" s="9"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
@@ -5240,10 +5332,18 @@
       <c r="M54" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="N54" s="15"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
+      <c r="N54" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="14" t="s">
+        <v>636</v>
+      </c>
       <c r="R54" s="9"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
@@ -5291,10 +5391,18 @@
       <c r="M55" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="N55" s="15"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
+      <c r="N55" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q55" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="R55" s="9"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
@@ -5342,10 +5450,18 @@
       <c r="M56" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
+      <c r="N56" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q56" s="15" t="s">
+        <v>637</v>
+      </c>
       <c r="R56" s="9"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
@@ -5393,10 +5509,18 @@
       <c r="M57" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
+      <c r="N57" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q57" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="R57" s="9"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -5444,10 +5568,18 @@
       <c r="M58" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="N58" s="15"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
+      <c r="N58" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="P58" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q58" s="14" t="s">
+        <v>638</v>
+      </c>
       <c r="R58" s="10"/>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
@@ -5495,10 +5627,18 @@
       <c r="M59" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="15"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
+      <c r="N59" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q59" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="R59" s="8"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -5546,10 +5686,18 @@
       <c r="M60" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="N60" s="15"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
+      <c r="N60" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P60" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q60" s="14" t="s">
+        <v>233</v>
+      </c>
       <c r="R60" s="9"/>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
@@ -5597,10 +5745,18 @@
       <c r="M61" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="15"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
+      <c r="N61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q61" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="R61" s="9"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -7061,7 +7217,9 @@
       <c r="P86" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="Q86" s="14"/>
+      <c r="Q86" s="14" t="s">
+        <v>400</v>
+      </c>
       <c r="R86" s="7"/>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
@@ -7116,7 +7274,9 @@
       <c r="P87" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="Q87" s="14"/>
+      <c r="Q87" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="R87" s="7"/>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
@@ -7171,7 +7331,9 @@
       <c r="P88" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="Q88" s="14"/>
+      <c r="Q88" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="R88" s="7"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
@@ -7226,7 +7388,9 @@
       <c r="P89" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="Q89" s="14"/>
+      <c r="Q89" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="R89" s="11"/>
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
@@ -7281,7 +7445,9 @@
       <c r="P90" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="Q90" s="14"/>
+      <c r="Q90" s="14" t="s">
+        <v>322</v>
+      </c>
       <c r="R90" s="6"/>
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
@@ -7336,7 +7502,9 @@
       <c r="P91" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="Q91" s="14"/>
+      <c r="Q91" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="R91" s="7"/>
       <c r="S91" s="9"/>
       <c r="T91" s="9"/>
@@ -7391,7 +7559,9 @@
       <c r="P92" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="Q92" s="14"/>
+      <c r="Q92" s="14" t="s">
+        <v>623</v>
+      </c>
       <c r="R92" s="7"/>
       <c r="S92" s="9"/>
       <c r="T92" s="9"/>
@@ -7446,7 +7616,9 @@
       <c r="P93" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="Q93" s="14"/>
+      <c r="Q93" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="R93" s="7"/>
       <c r="S93" s="9"/>
       <c r="T93" s="9"/>
@@ -7501,7 +7673,9 @@
       <c r="P94" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="Q94" s="15"/>
+      <c r="Q94" s="15" t="s">
+        <v>624</v>
+      </c>
       <c r="R94" s="7"/>
       <c r="S94" s="9"/>
       <c r="T94" s="9"/>
@@ -7556,7 +7730,9 @@
       <c r="P95" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="Q95" s="15"/>
+      <c r="Q95" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="R95" s="7"/>
       <c r="S95" s="9"/>
       <c r="T95" s="9"/>
@@ -7611,7 +7787,9 @@
       <c r="P96" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="Q96" s="14"/>
+      <c r="Q96" s="14" t="s">
+        <v>611</v>
+      </c>
       <c r="R96" s="7"/>
       <c r="S96" s="9"/>
       <c r="T96" s="9"/>
@@ -7666,7 +7844,9 @@
       <c r="P97" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q97" s="14"/>
+      <c r="Q97" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="R97" s="7"/>
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
@@ -8996,10 +9176,18 @@
       <c r="M122" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="N122" s="14"/>
-      <c r="O122" s="14"/>
-      <c r="P122" s="14"/>
-      <c r="Q122" s="14"/>
+      <c r="N122" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="O122" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="P122" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q122" s="14" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -9041,10 +9229,18 @@
       <c r="M123" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="N123" s="14"/>
-      <c r="O123" s="14"/>
-      <c r="P123" s="14"/>
-      <c r="Q123" s="14"/>
+      <c r="N123" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O123" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P123" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q123" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -9086,10 +9282,18 @@
       <c r="M124" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="N124" s="14"/>
-      <c r="O124" s="14"/>
-      <c r="P124" s="14"/>
-      <c r="Q124" s="14"/>
+      <c r="N124" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="O124" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="P124" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q124" s="14" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
@@ -9131,10 +9335,18 @@
       <c r="M125" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="N125" s="14"/>
-      <c r="O125" s="14"/>
-      <c r="P125" s="14"/>
-      <c r="Q125" s="14"/>
+      <c r="N125" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O125" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P125" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q125" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
@@ -9176,10 +9388,18 @@
       <c r="M126" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="N126" s="14"/>
-      <c r="O126" s="14"/>
-      <c r="P126" s="14"/>
-      <c r="Q126" s="14"/>
+      <c r="N126" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="O126" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="P126" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q126" s="14" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
@@ -9221,10 +9441,18 @@
       <c r="M127" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="N127" s="14"/>
-      <c r="O127" s="14"/>
-      <c r="P127" s="14"/>
-      <c r="Q127" s="14"/>
+      <c r="N127" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O127" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="P127" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q127" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
@@ -9266,10 +9494,18 @@
       <c r="M128" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="N128" s="14"/>
-      <c r="O128" s="14"/>
-      <c r="P128" s="14"/>
-      <c r="Q128" s="14"/>
+      <c r="N128" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="O128" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="P128" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q128" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -9311,10 +9547,18 @@
       <c r="M129" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="N129" s="14"/>
-      <c r="O129" s="14"/>
-      <c r="P129" s="14"/>
-      <c r="Q129" s="14"/>
+      <c r="N129" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O129" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P129" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q129" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
@@ -9356,10 +9600,18 @@
       <c r="M130" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="N130" s="14"/>
-      <c r="O130" s="14"/>
-      <c r="P130" s="14"/>
-      <c r="Q130" s="14"/>
+      <c r="N130" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="O130" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="P130" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q130" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
@@ -9401,10 +9653,18 @@
       <c r="M131" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="N131" s="14"/>
-      <c r="O131" s="14"/>
-      <c r="P131" s="14"/>
-      <c r="Q131" s="14"/>
+      <c r="N131" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O131" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P131" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q131" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
@@ -9446,10 +9706,18 @@
       <c r="M132" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="N132" s="14"/>
-      <c r="O132" s="14"/>
-      <c r="P132" s="14"/>
-      <c r="Q132" s="14"/>
+      <c r="N132" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="O132" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="P132" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q132" s="14" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
@@ -9491,10 +9759,18 @@
       <c r="M133" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N133" s="14"/>
-      <c r="O133" s="14"/>
-      <c r="P133" s="14"/>
-      <c r="Q133" s="14"/>
+      <c r="N133" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O133" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P133" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q133" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
